--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\PycharmProjects\Riset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C1C37-C205-4601-B872-5334D4BCF413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02588C0-7428-444D-8459-8B21E6B98BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11064" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -58,61 +58,52 @@
     <t>P</t>
   </si>
   <si>
+    <t>G | 0.9877777777777773</t>
+  </si>
+  <si>
+    <t>G | 0.9641577060931883</t>
+  </si>
+  <si>
+    <t>G | 0.9399534264803716</t>
+  </si>
+  <si>
+    <t>G | 0.917929292929295</t>
+  </si>
+  <si>
+    <t>SW | 0.9537941065387343</t>
+  </si>
+  <si>
+    <t>G | 0.8675925925925564</t>
+  </si>
+  <si>
+    <t>G | 1.0</t>
+  </si>
+  <si>
+    <t>W | 0.9110769230769201</t>
+  </si>
+  <si>
+    <t>G | 0.9999999999999984</t>
+  </si>
+  <si>
+    <t>W | 0.8351996789082863</t>
+  </si>
+  <si>
+    <t>G | 0.9999999999999983</t>
+  </si>
+  <si>
+    <t>G | 0.5753050738599903</t>
+  </si>
+  <si>
+    <t>SW | 0.5186751054852357</t>
+  </si>
+  <si>
+    <t>W | 0.6666666666666632</t>
+  </si>
+  <si>
+    <t>W | 0.8497087528449683</t>
+  </si>
+  <si>
     <t>SW | 1.0</t>
-  </si>
-  <si>
-    <t>SW | 0.7543431442928927</t>
-  </si>
-  <si>
-    <t>G | 0.9877777777777773</t>
-  </si>
-  <si>
-    <t>G | 0.9641577060931883</t>
-  </si>
-  <si>
-    <t>G | 0.9399534264803716</t>
-  </si>
-  <si>
-    <t>G | 0.917929292929295</t>
-  </si>
-  <si>
-    <t>SW | 0.9537941065387343</t>
-  </si>
-  <si>
-    <t>G | 0.8675925925925564</t>
-  </si>
-  <si>
-    <t>G | 1.0</t>
-  </si>
-  <si>
-    <t>W | 0.9110769230769201</t>
-  </si>
-  <si>
-    <t>W | 0.6666666666666676</t>
-  </si>
-  <si>
-    <t>G | 0.9999999999999984</t>
-  </si>
-  <si>
-    <t>W | 0.8351996789082863</t>
-  </si>
-  <si>
-    <t>G | 0.9999999999999983</t>
-  </si>
-  <si>
-    <t>G | 0.5753050738599903</t>
-  </si>
-  <si>
-    <t>SW | 0.5186751054852357</t>
-  </si>
-  <si>
-    <t>W | 0.7645494143195908</t>
-  </si>
-  <si>
-    <t>W | 0.6666666666666632</t>
-  </si>
-  <si>
-    <t>W | 0.8497087528449683</t>
   </si>
   <si>
     <t>G | 0.6214506886024947</t>
@@ -486,15 +477,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -763,10 +753,10 @@
         <v>56.5</v>
       </c>
       <c r="H10">
-        <v>3.9306306306306298</v>
+        <v>3.020967741935483</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,10 +782,10 @@
         <v>56.5</v>
       </c>
       <c r="H11">
-        <v>4.3456568557071069</v>
+        <v>3.020967741935511</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -847,7 +837,7 @@
         <v>6.9853333333333358</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -876,7 +866,7 @@
         <v>6.956989247311828</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -905,7 +895,7 @@
         <v>6.956989247311828</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -934,7 +924,7 @@
         <v>6.9853333333333358</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -986,7 +976,7 @@
         <v>6.9279441117764469</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1061,7 +1051,7 @@
         <v>7.8015151515151544</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1090,7 +1080,7 @@
         <v>5.2415853041151372</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1142,7 +1132,7 @@
         <v>7.741111111111068</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1194,7 +1184,7 @@
         <v>8.6034482758620712</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1223,7 +1213,7 @@
         <v>8.6034482758620712</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1275,7 +1265,7 @@
         <v>7.4889230769230792</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1304,7 +1294,7 @@
         <v>7.4889230769230792</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1333,7 +1323,7 @@
         <v>8.6034482758620552</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1382,10 +1372,10 @@
         <v>76</v>
       </c>
       <c r="H33">
-        <v>8.6999999999999993</v>
+        <v>8.5560439560439576</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1414,7 +1404,7 @@
         <v>8.5560439560439576</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1466,7 +1456,7 @@
         <v>9.5869047619047638</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1524,7 +1514,7 @@
         <v>7.4351996789082859</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1599,7 +1589,7 @@
         <v>9.5862299465240675</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1628,7 +1618,7 @@
         <v>8.9903660886319887</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1657,7 +1647,7 @@
         <v>7.081324894514764</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1686,7 +1676,7 @@
         <v>7.4351996789082859</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1793,10 +1783,10 @@
         <v>76</v>
       </c>
       <c r="H48">
-        <v>8.2645494143195908</v>
+        <v>8.0210161662817558</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -1894,7 +1884,7 @@
         <v>8.7000000000000046</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -1923,7 +1913,7 @@
         <v>8.7000000000000046</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2021,7 +2011,7 @@
         <v>8.3497087528449683</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2050,7 +2040,7 @@
         <v>7.4280303030303161</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2223,7 +2213,7 @@
         <v>9.9078858951832434</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2252,7 +2242,7 @@
         <v>9.8000000000000114</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2281,7 +2271,7 @@
         <v>9.8000000000000114</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\PycharmProjects\Riset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02588C0-7428-444D-8459-8B21E6B98BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0C257-EA96-4309-9421-3B521730A4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11064" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11184" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,14 +477,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>52</v>
       </c>
       <c r="H2">
-        <v>2.7483452185042978</v>
+        <v>2.477612792689893</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
